--- a/src/test/resources/data/Mensajes.xlsx
+++ b/src/test/resources/data/Mensajes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitmi\OneDrive\Documentos\TareasInteliJ\LastHomework\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F39B0-CBE3-4E3A-B2A2-17C3A9B50CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56858C19-F56B-43EE-B6CA-16A981B86C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8654CCFA-9219-44BE-8B65-2D0B7A3A994D}"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorMessage" sheetId="1" r:id="rId1"/>
     <sheet name="UserInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="Comentarios" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Key</t>
   </si>
@@ -82,13 +83,34 @@
   </si>
   <si>
     <t>usuario1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>comentario 1</t>
+  </si>
+  <si>
+    <t>comentario 2</t>
+  </si>
+  <si>
+    <t>comentario 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +130,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -576,4 +604,55 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D626781A-F161-4C9A-A312-F8913E1FAA59}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>